--- a/ResultadoEleicoesDistritos/LEIRIA_ALVAIÁZERE.xlsx
+++ b/ResultadoEleicoesDistritos/LEIRIA_ALVAIÁZERE.xlsx
@@ -597,64 +597,64 @@
         <v>1722</v>
       </c>
       <c r="H2" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I2" t="n">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="J2" t="n">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M2" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N2" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S2" t="n">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="T2" t="n">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="U2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V2" t="n">
-        <v>1153</v>
+        <v>1084</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1091</v>
+        <v>1110</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
